--- a/perf_proposed_all.xlsx
+++ b/perf_proposed_all.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.0% [89.9%;93.9%]</t>
+          <t>92.3% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.9% [1.8%;1.9%]</t>
+          <t>1.9% [1.9%;1.9%]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.0% [75.5%;80.5%]</t>
+          <t>78.0% [75.5%;80.6%]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.0% [98.6%;99.4%]</t>
+          <t>99.0% [98.5%;99.4%]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.7% [87.4%;91.9%]</t>
+          <t>89.8% [87.6%;92.0%]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -690,27 +690,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.8% [94.0%;97.4%]</t>
+          <t>95.2% [93.4%;96.8%]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>93.0% [90.8%;95.0%]</t>
+          <t>92.6% [90.4%;94.8%]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>84.6% [82.0%;87.2%]</t>
+          <t>84.2% [81.6%;86.8%]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4.8% [2.8%;7.0%]</t>
+          <t>4.4% [2.6%;6.2%]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.2% [1.1%;3.4%]</t>
+          <t>2.3% [1.2%;3.6%]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -752,32 +752,32 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.4% [91.2%;95.4%]</t>
+          <t>93.8% [91.6%;95.8%]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>90.0% [87.4%;92.4%]</t>
+          <t>90.8% [88.4%;93.2%]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>81.2% [78.6%;83.8%]</t>
+          <t>82.0% [79.4%;84.6%]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4.4% [2.6%;6.4%]</t>
+          <t>5.0% [3.0%;7.2%]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.2% [1.0%;3.4%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.2% [3.8%;6.6%]</t>
+          <t>5.5% [3.9%;7.2%]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4.3% [3.2%;5.7%]</t>
+          <t>4.9% [3.6%;6.3%]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.0% [0.0%;0.0%]</t>
+          <t>1.0% [0.0%;3.0%]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.0% [90.0%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.9% [1.9%;1.9%]</t>
+          <t>1.9% [1.9%;2.0%]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89.8% [87.5%;92.0%]</t>
+          <t>89.9% [87.6%;92.2%]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1310,27 +1310,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>96.4% [94.8%;98.0%]</t>
+          <t>95.4% [93.6%;97.0%]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>93.8% [91.6%;95.8%]</t>
+          <t>93.6% [91.4%;95.6%]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>87.6% [85.0%;90.2%]</t>
+          <t>88.0% [85.4%;90.6%]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4.8% [2.8%;7.0%]</t>
+          <t>4.2% [2.6%;6.0%]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.4% [1.2%;3.7%]</t>
+          <t>2.3% [1.2%;3.6%]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1372,27 +1372,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.4% [91.2%;95.4%]</t>
+          <t>94.0% [91.8%;96.0%]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>91.0% [88.6%;93.2%]</t>
+          <t>91.2% [88.8%;93.4%]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>82.8% [80.0%;85.6%]</t>
+          <t>84.2% [81.4%;86.8%]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>4.2% [2.4%;6.2%]</t>
+          <t>4.6% [2.8%;6.8%]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.3% [1.2%;3.7%]</t>
+          <t>2.1% [1.0%;3.4%]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5.4% [4.0%;6.9%]</t>
+          <t>5.3% [3.9%;6.8%]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4.3% [3.2%;5.6%]</t>
+          <t>5.3% [4.0%;6.8%]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.0% [1.0%;8.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>92.0% [90.0%;94.0%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.9% [1.9%;1.9%]</t>
+          <t>1.9% [1.9%;2.0%]</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>77.9% [75.4%;80.6%]</t>
+          <t>78.0% [75.4%;80.6%]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89.9% [87.6%;92.1%]</t>
+          <t>89.9% [87.6%;92.2%]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1930,27 +1930,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>96.0% [94.2%;97.6%]</t>
+          <t>95.6% [93.8%;97.2%]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>93.6% [91.4%;95.6%]</t>
+          <t>93.2% [91.0%;95.2%]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>89.2% [86.6%;91.8%]</t>
+          <t>88.8% [86.2%;91.2%]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4.6% [2.8%;6.6%]</t>
+          <t>4.0% [2.4%;5.8%]</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2.4% [1.2%;3.7%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1992,32 +1992,32 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>93.4% [91.2%;95.4%]</t>
+          <t>94.2% [92.2%;96.2%]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>91.4% [89.2%;93.6%]</t>
+          <t>91.6% [89.4%;93.8%]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>85.6% [83.0%;88.2%]</t>
+          <t>85.4% [82.8%;88.0%]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>4.4% [2.6%;6.2%]</t>
+          <t>4.8% [3.0%;7.0%]</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2.7% [1.4%;4.1%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2069,17 +2069,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>5.0% [3.7%;6.4%]</t>
+          <t>5.4% [3.9%;7.0%]</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2131,17 +2131,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4.7% [3.4%;6.1%]</t>
+          <t>5.6% [4.2%;7.1%]</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>92.0% [90.0%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.9% [1.9%;1.9%]</t>
+          <t>1.9% [1.9%;2.0%]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>77.9% [75.3%;80.5%]</t>
+          <t>78.0% [75.5%;80.7%]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>90.9% [86.8%;94.2%]</t>
+          <t>90.8% [86.8%;94.1%]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.6% [2.3%;3.0%]</t>
+          <t>2.6% [2.3%;2.9%]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>20.8% [13.5%;28.4%]</t>
+          <t>20.6% [13.4%;28.3%]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.4% [0.2%;0.5%]</t>
+          <t>0.3% [0.2%;0.4%]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>96.0% [94.4%;97.6%]</t>
+          <t>96.0% [94.2%;97.6%]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2560,17 +2560,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>88.6% [86.0%;91.2%]</t>
+          <t>89.0% [86.4%;91.6%]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>4.6% [2.8%;6.6%]</t>
+          <t>4.2% [2.4%;6.2%]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2.0% [1.0%;3.2%]</t>
+          <t>1.8% [0.8%;3.0%]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>93.8% [91.6%;95.8%]</t>
+          <t>93.6% [91.4%;95.6%]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2627,12 +2627,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>4.2% [2.6%;6.0%]</t>
+          <t>5.0% [3.0%;7.2%]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.4% [1.2%;3.6%]</t>
+          <t>1.8% [0.8%;3.0%]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2689,17 +2689,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>5.0% [3.7%;6.4%]</t>
+          <t>5.2% [3.8%;6.8%]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>4.8% [3.5%;6.2%]</t>
+          <t>5.5% [4.1%;7.0%]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>92.0% [89.9%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1.9% [1.9%;1.9%]</t>
+          <t>1.9% [1.9%;2.0%]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>77.9% [75.4%;80.6%]</t>
+          <t>77.9% [75.4%;80.5%]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>93.2% [92.0%;94.4%]</t>
+          <t>93.1% [91.8%;94.2%]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2.2% [1.9%;2.4%]</t>
+          <t>2.3% [2.0%;2.6%]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>90.0% [87.7%;92.2%]</t>
+          <t>89.9% [87.6%;92.2%]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>73.0% [70.5%;75.2%]</t>
+          <t>72.1% [69.3%;74.7%]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>96.0% [94.4%;97.6%]</t>
+          <t>95.8% [94.0%;97.4%]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3180,17 +3180,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>89.2% [86.8%;91.6%]</t>
+          <t>89.6% [87.0%;92.0%]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>4.8% [3.0%;6.8%]</t>
+          <t>4.2% [2.4%;6.2%]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2.2% [1.1%;3.4%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3232,27 +3232,27 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>93.4% [91.2%;95.4%]</t>
+          <t>93.2% [91.0%;95.2%]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>91.2% [88.8%;93.4%]</t>
+          <t>91.4% [89.0%;93.6%]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>85.8% [83.0%;88.4%]</t>
+          <t>86.0% [83.4%;88.6%]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>4.6% [2.8%;6.8%]</t>
+          <t>4.8% [2.8%;7.0%]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2.2% [1.0%;3.4%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>5.0% [3.7%;6.4%]</t>
+          <t>5.2% [3.8%;6.9%]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3371,17 +3371,17 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>4.7% [3.4%;6.0%]</t>
+          <t>5.3% [4.0%;6.8%]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3542,27 +3542,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>92.0% [90.0%;93.9%]</t>
+          <t>92.3% [90.2%;94.2%]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>87.3% [85.0%;89.6%]</t>
+          <t>87.5% [85.2%;89.7%]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>87.3% [85.0%;89.6%]</t>
+          <t>87.5% [85.3%;89.7%]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1.9% [1.8%;1.9%]</t>
+          <t>1.9% [1.9%;1.9%]</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>36.0% [34.7%;37.3%]</t>
+          <t>36.6% [35.2%;38.0%]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3604,17 +3604,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>78.0% [75.5%;80.5%]</t>
+          <t>78.0% [75.5%;80.6%]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>71.5% [69.8%;73.4%]</t>
+          <t>71.2% [69.5%;73.0%]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>71.5% [69.8%;73.4%]</t>
+          <t>71.2% [69.5%;73.0%]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>30.8% [29.2%;32.2%]</t>
+          <t>31.0% [29.4%;32.6%]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>97.0% [96.1%;97.8%]</t>
+          <t>97.2% [96.5%;97.9%]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>97.0% [96.1%;97.8%]</t>
+          <t>97.2% [96.5%;97.9%]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>7.5% [7.0%;8.0%]</t>
+          <t>7.7% [7.2%;8.2%]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3728,17 +3728,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>89.7% [87.4%;91.9%]</t>
+          <t>89.8% [87.5%;92.0%]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>78.2% [76.1%;80.4%]</t>
+          <t>78.6% [76.5%;80.8%]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>78.2% [76.1%;80.4%]</t>
+          <t>78.6% [76.5%;80.8%]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3.5% [3.1%;3.8%]</t>
+          <t>3.4% [3.1%;3.7%]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3790,27 +3790,27 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>95.8% [94.0%;97.4%]</t>
+          <t>95.2% [93.4%;96.8%]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>93.0% [90.8%;95.2%]</t>
+          <t>92.6% [90.4%;94.8%]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>90.0% [87.6%;92.2%]</t>
+          <t>89.0% [86.4%;91.4%]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4.8% [2.8%;7.0%]</t>
+          <t>4.4% [2.6%;6.2%]</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2.2% [1.1%;3.5%]</t>
+          <t>2.3% [1.2%;3.6%]</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3852,32 +3852,32 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>93.4% [91.2%;95.4%]</t>
+          <t>93.8% [91.6%;95.8%]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>90.0% [87.4%;92.4%]</t>
+          <t>90.8% [88.4%;93.2%]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>85.2% [82.6%;87.8%]</t>
+          <t>85.2% [82.8%;87.6%]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>4.4% [2.6%;6.4%]</t>
+          <t>5.0% [3.2%;7.2%]</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2.2% [1.0%;3.4%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3929,17 +3929,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>5.2% [3.9%;6.7%]</t>
+          <t>5.8% [4.2%;7.4%]</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>10.0% [5.0%;16.0%]</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>10.0% [5.0%;16.0%]</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3991,17 +3991,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>4.3% [3.2%;5.7%]</t>
+          <t>4.9% [3.6%;6.3%]</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>7.0% [3.0%;12.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4162,27 +4162,27 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>92.0% [89.9%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>84.8% [82.6%;87.1%]</t>
+          <t>85.6% [83.3%;87.8%]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>84.8% [82.6%;87.1%]</t>
+          <t>85.6% [83.4%;87.8%]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1.9% [1.9%;1.9%]</t>
+          <t>1.9% [1.9%;2.0%]</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>24.6% [23.5%;25.8%]</t>
+          <t>24.4% [23.0%;25.8%]</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4229,12 +4229,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>70.0% [68.4%;71.7%]</t>
+          <t>70.1% [68.6%;71.7%]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>70.0% [68.4%;71.7%]</t>
+          <t>70.1% [68.6%;71.7%]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>21.3% [19.9%;22.8%]</t>
+          <t>21.9% [20.4%;23.4%]</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4291,12 +4291,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>95.9% [95.0%;96.8%]</t>
+          <t>95.9% [95.0%;96.7%]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>95.9% [95.0%;96.8%]</t>
+          <t>95.9% [95.0%;96.7%]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4306,12 +4306,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4.5% [4.1%;5.0%]</t>
+          <t>4.6% [4.2%;5.0%]</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>99.0% [97.0%;100.0%]</t>
+          <t>100.0% [100.0%;100.0%]</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4348,17 +4348,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>89.8% [87.5%;92.0%]</t>
+          <t>89.9% [87.7%;92.1%]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>76.2% [74.2%;78.3%]</t>
+          <t>76.3% [74.3%;78.3%]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>76.2% [74.2%;78.3%]</t>
+          <t>76.3% [74.3%;78.3%]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4368,12 +4368,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2.3% [2.0%;2.6%]</t>
+          <t>2.3% [2.1%;2.6%]</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>92.0% [86.0%;97.0%]</t>
+          <t>94.0% [89.0%;98.0%]</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4410,27 +4410,27 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>96.4% [94.8%;98.0%]</t>
+          <t>95.4% [93.6%;97.0%]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>93.8% [91.6%;95.8%]</t>
+          <t>93.6% [91.4%;95.6%]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>89.4% [87.0%;91.8%]</t>
+          <t>89.2% [86.6%;91.8%]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4.8% [2.8%;7.0%]</t>
+          <t>4.2% [2.6%;6.0%]</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.4% [1.2%;3.7%]</t>
+          <t>2.3% [1.2%;3.6%]</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4472,27 +4472,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>93.4% [91.2%;95.4%]</t>
+          <t>94.0% [91.8%;96.0%]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>91.0% [88.6%;93.2%]</t>
+          <t>91.2% [88.8%;93.6%]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>85.2% [82.6%;87.8%]</t>
+          <t>86.2% [83.6%;88.8%]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>4.2% [2.4%;6.2%]</t>
+          <t>4.6% [2.8%;6.8%]</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2.3% [1.2%;3.7%]</t>
+          <t>2.1% [1.0%;3.4%]</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4549,17 +4549,17 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>5.4% [4.0%;6.9%]</t>
+          <t>5.3% [3.9%;6.8%]</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>8.0% [3.0%;14.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4611,17 +4611,17 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>4.3% [3.2%;5.6%]</t>
+          <t>5.3% [3.9%;6.8%]</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>8.0% [3.0%;14.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4782,32 +4782,32 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>92.0% [89.9%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>83.4% [81.0%;85.6%]</t>
+          <t>83.8% [81.5%;86.0%]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>83.4% [81.0%;85.6%]</t>
+          <t>83.8% [81.5%;86.0%]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1.9% [1.9%;2.0%]</t>
+          <t>2.0% [1.9%;2.0%]</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>18.7% [17.4%;19.9%]</t>
+          <t>18.9% [17.5%;20.2%]</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>99.0% [97.0%;100.0%]</t>
+          <t>100.0% [100.0%;100.0%]</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4844,17 +4844,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>78.1% [75.6%;80.6%]</t>
+          <t>78.2% [75.6%;80.8%]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>69.0% [67.5%;70.7%]</t>
+          <t>69.0% [67.4%;70.6%]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>69.0% [67.5%;70.7%]</t>
+          <t>69.0% [67.4%;70.6%]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4864,12 +4864,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>17.4% [16.1%;18.8%]</t>
+          <t>17.7% [16.2%;19.1%]</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>98.0% [95.0%;100.0%]</t>
+          <t>99.0% [97.0%;100.0%]</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4911,12 +4911,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>94.9% [93.9%;95.9%]</t>
+          <t>94.7% [93.7%;95.7%]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>94.9% [93.9%;95.9%]</t>
+          <t>94.7% [93.6%;95.6%]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4926,12 +4926,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3.5% [3.1%;4.1%]</t>
+          <t>3.5% [3.0%;4.0%]</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>99.0% [97.0%;100.0%]</t>
+          <t>97.0% [93.0%;100.0%]</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4968,17 +4968,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>90.1% [87.8%;92.3%]</t>
+          <t>90.1% [87.7%;92.3%]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>75.1% [73.2%;77.1%]</t>
+          <t>74.8% [73.0%;76.8%]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>75.1% [73.2%;77.1%]</t>
+          <t>74.8% [73.0%;76.8%]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4988,12 +4988,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1.8% [1.6%;2.1%]</t>
+          <t>1.9% [1.6%;2.1%]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>88.0% [81.0%;94.0%]</t>
+          <t>89.0% [82.0%;95.0%]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5030,12 +5030,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>96.0% [94.2%;97.6%]</t>
+          <t>95.8% [94.0%;97.4%]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>93.8% [91.6%;95.8%]</t>
+          <t>93.4% [91.2%;95.4%]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5045,17 +5045,17 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>5.0% [3.2%;7.0%]</t>
+          <t>4.2% [2.6%;6.0%]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2.4% [1.2%;3.6%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5092,27 +5092,27 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>93.8% [91.6%;95.8%]</t>
+          <t>94.2% [92.2%;96.2%]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>91.4% [89.2%;93.6%]</t>
+          <t>91.8% [89.6%;94.0%]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>86.4% [83.8%;89.0%]</t>
+          <t>86.8% [84.2%;89.4%]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>4.6% [2.8%;6.6%]</t>
+          <t>5.2% [3.2%;7.4%]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.7% [1.4%;4.1%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>5.2% [3.8%;6.6%]</t>
+          <t>5.6% [4.1%;7.2%]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5231,17 +5231,17 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>4.7% [3.4%;6.1%]</t>
+          <t>5.8% [4.3%;7.2%]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>8.0% [3.0%;14.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>8.0% [3.0%;14.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5402,32 +5402,32 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>92.0% [89.9%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>82.1% [79.7%;84.4%]</t>
+          <t>82.2% [80.0%;84.5%]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>82.1% [79.8%;84.4%]</t>
+          <t>82.2% [80.0%;84.5%]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>1.9% [1.9%;1.9%]</t>
+          <t>1.9% [1.9%;2.0%]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>15.3% [14.2%;16.4%]</t>
+          <t>15.3% [14.0%;16.6%]</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>99.0% [97.0%;100.0%]</t>
+          <t>100.0% [100.0%;100.0%]</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5464,17 +5464,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>77.9% [75.3%;80.5%]</t>
+          <t>78.0% [75.5%;80.6%]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>68.6% [67.1%;70.3%]</t>
+          <t>68.5% [67.0%;70.1%]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>68.6% [67.1%;70.3%]</t>
+          <t>68.5% [67.0%;70.1%]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5484,12 +5484,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>14.4% [13.1%;15.7%]</t>
+          <t>14.9% [13.6%;16.2%]</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>96.0% [92.0%;99.0%]</t>
+          <t>97.0% [93.0%;100.0%]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5526,17 +5526,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>99.0% [98.6%;99.4%]</t>
+          <t>99.0% [98.5%;99.4%]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>97.0% [96.2%;97.7%]</t>
+          <t>96.9% [96.0%;97.6%]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>94.0% [92.8%;95.0%]</t>
+          <t>93.9% [92.8%;94.9%]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5546,12 +5546,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>4.6% [4.2%;5.1%]</t>
+          <t>4.6% [4.1%;5.0%]</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>97.0% [93.0%;100.0%]</t>
+          <t>95.0% [90.0%;99.0%]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>76.2% [73.9%;78.5%]</t>
+          <t>75.9% [73.7%;78.2%]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>74.3% [72.4%;76.2%]</t>
+          <t>74.0% [72.2%;76.0%]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>96.0% [94.4%;97.6%]</t>
+          <t>96.0% [94.2%;97.6%]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5660,17 +5660,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>90.0% [87.6%;92.4%]</t>
+          <t>89.8% [87.2%;92.2%]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>4.6% [2.8%;6.6%]</t>
+          <t>4.2% [2.4%;6.2%]</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.0% [1.0%;3.2%]</t>
+          <t>1.8% [0.8%;3.0%]</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5712,27 +5712,27 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>93.8% [91.6%;95.8%]</t>
+          <t>93.6% [91.4%;95.6%]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>91.8% [89.6%;94.0%]</t>
+          <t>91.8% [89.4%;94.0%]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>86.0% [83.4%;88.6%]</t>
+          <t>86.8% [84.2%;89.2%]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>4.2% [2.6%;6.0%]</t>
+          <t>5.0% [3.0%;7.2%]</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.4% [1.2%;3.6%]</t>
+          <t>1.8% [0.8%;3.0%]</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5789,17 +5789,17 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>5.0% [3.7%;6.4%]</t>
+          <t>5.2% [3.8%;6.8%]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>8.0% [3.0%;14.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>8.0% [3.0%;14.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5851,17 +5851,17 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>4.8% [3.5%;6.2%]</t>
+          <t>5.5% [4.1%;7.0%]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>8.0% [3.0%;14.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6022,32 +6022,32 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>92.0% [89.9%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>81.2% [78.9%;83.5%]</t>
+          <t>81.0% [78.8%;83.2%]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>81.2% [78.9%;83.5%]</t>
+          <t>81.0% [78.8%;83.2%]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1.9% [1.9%;1.9%]</t>
+          <t>1.9% [1.9%;2.0%]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>12.8% [11.6%;13.9%]</t>
+          <t>13.1% [12.0%;14.4%]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>97.0% [93.0%;100.0%]</t>
+          <t>100.0% [100.0%;100.0%]</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6089,12 +6089,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>68.0% [66.5%;69.7%]</t>
+          <t>67.7% [66.2%;69.2%]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>68.0% [66.5%;69.6%]</t>
+          <t>67.7% [66.2%;69.2%]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -6104,12 +6104,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>12.5% [11.4%;13.7%]</t>
+          <t>12.7% [11.5%;14.0%]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>96.0% [92.0%;99.0%]</t>
+          <t>97.0% [93.0%;100.0%]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6151,12 +6151,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>96.6% [95.7%;97.4%]</t>
+          <t>96.4% [95.4%;97.2%]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>93.2% [92.0%;94.4%]</t>
+          <t>93.1% [91.8%;94.2%]</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6208,17 +6208,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>90.0% [87.7%;92.3%]</t>
+          <t>89.9% [87.6%;92.2%]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>76.3% [74.2%;78.5%]</t>
+          <t>76.3% [74.2%;78.4%]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>73.6% [71.8%;75.5%]</t>
+          <t>73.5% [71.7%;75.3%]</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -6228,12 +6228,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2.2% [1.9%;2.4%]</t>
+          <t>2.1% [1.8%;2.4%]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>80.0% [72.0%;88.0%]</t>
+          <t>81.0% [73.0%;88.0%]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>96.0% [94.4%;97.6%]</t>
+          <t>95.8% [94.0%;97.4%]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6280,17 +6280,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>89.8% [87.4%;92.0%]</t>
+          <t>90.2% [87.8%;92.6%]</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>4.8% [3.0%;6.8%]</t>
+          <t>4.2% [2.4%;6.2%]</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2.2% [1.1%;3.4%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6332,27 +6332,27 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>93.4% [91.2%;95.4%]</t>
+          <t>93.2% [91.0%;95.2%]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>91.2% [88.8%;93.4%]</t>
+          <t>91.4% [89.0%;93.6%]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>86.4% [83.8%;89.0%]</t>
+          <t>86.8% [84.2%;89.4%]</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>4.6% [2.8%;6.8%]</t>
+          <t>4.8% [2.8%;7.0%]</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2.2% [1.0%;3.4%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6409,17 +6409,17 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>5.0% [3.7%;6.4%]</t>
+          <t>5.2% [3.8%;6.9%]</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6471,17 +6471,17 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>4.7% [3.4%;6.0%]</t>
+          <t>5.3% [4.0%;6.8%]</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>9.0% [4.0%;15.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>8.0% [3.0%;14.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6642,12 +6642,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>92.0% [89.9%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>78.4% [76.1%;80.7%]</t>
+          <t>78.5% [76.1%;81.0%]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6657,12 +6657,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1.9% [1.9%;2.0%]</t>
+          <t>2.0% [1.9%;2.0%]</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>6.1% [5.2%;6.9%]</t>
+          <t>6.3% [5.4%;7.3%]</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6709,12 +6709,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>65.7% [64.0%;67.3%]</t>
+          <t>65.6% [63.9%;67.2%]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>59.3% [57.3%;61.2%]</t>
+          <t>59.0% [57.0%;61.0%]</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>5.2% [4.3%;6.1%]</t>
+          <t>5.1% [4.2%;6.0%]</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>99.0% [98.6%;99.4%]</t>
+          <t>99.0% [98.5%;99.4%]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>96.5% [95.3%;97.5%]</t>
+          <t>96.7% [95.8%;97.6%]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>4.8% [4.4%;5.2%]</t>
+          <t>4.9% [4.5%;5.4%]</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6828,17 +6828,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>90.0% [87.7%;92.1%]</t>
+          <t>90.0% [87.8%;92.2%]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>75.0% [72.9%;77.3%]</t>
+          <t>75.2% [73.1%;77.4%]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>66.6% [66.1%;67.1%]</t>
+          <t>66.5% [66.2%;67.0%]</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -6848,12 +6848,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1.8% [1.5%;2.0%]</t>
+          <t>1.8% [1.6%;2.1%]</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>4.0% [1.0%;8.0%]</t>
+          <t>3.0% [0.0%;7.0%]</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6890,32 +6890,32 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>96.2% [94.4%;97.8%]</t>
+          <t>96.0% [94.2%;97.6%]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>93.2% [91.0%;95.2%]</t>
+          <t>92.8% [90.6%;94.8%]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>90.0% [87.6%;92.2%]</t>
+          <t>89.4% [87.0%;91.8%]</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>4.4% [2.6%;6.6%]</t>
+          <t>4.8% [3.0%;6.8%]</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2.3% [1.1%;3.6%]</t>
+          <t>2.8% [1.5%;4.3%]</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6957,27 +6957,27 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>90.4% [88.0%;92.8%]</t>
+          <t>90.8% [88.4%;93.2%]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>86.2% [83.6%;88.8%]</t>
+          <t>86.6% [84.0%;89.2%]</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>4.4% [2.6%;6.4%]</t>
+          <t>4.8% [3.0%;7.0%]</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2.4% [1.2%;3.8%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>7.0% [3.0%;12.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7029,17 +7029,17 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>5.1% [3.8%;6.4%]</t>
+          <t>5.7% [4.2%;7.3%]</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2.0% [0.0%;5.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>2.0% [0.0%;5.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -7091,17 +7091,17 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>4.7% [3.5%;5.9%]</t>
+          <t>5.3% [4.0%;6.8%]</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -7262,17 +7262,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>92.0% [90.0%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>77.1% [74.8%;79.4%]</t>
+          <t>77.1% [74.9%;79.4%]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1.3% [0.0%;3.3%]</t>
+          <t>0.9% [0.0%;2.8%]</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -7282,12 +7282,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>4.9% [4.2%;5.7%]</t>
+          <t>4.9% [4.1%;5.7%]</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>1.0% [0.0%;3.0%]</t>
+          <t>0.0% [0.0%;0.0%]</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -7324,32 +7324,32 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>77.9% [75.4%;80.5%]</t>
+          <t>78.1% [75.6%;80.6%]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>65.3% [63.6%;66.9%]</t>
+          <t>65.3% [63.5%;67.0%]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>57.5% [55.3%;59.6%]</t>
+          <t>58.1% [55.9%;60.2%]</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.8% [0.8%;0.8%]</t>
+          <t>0.8% [0.7%;0.8%]</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>4.4% [3.6%;5.2%]</t>
+          <t>4.5% [3.7%;5.4%]</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>4.0% [1.0%;8.0%]</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -7386,17 +7386,17 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>99.0% [98.6%;99.4%]</t>
+          <t>99.0% [98.5%;99.4%]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>96.6% [95.5%;97.5%]</t>
+          <t>96.6% [95.6%;97.5%]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>69.6% [67.6%;71.7%]</t>
+          <t>68.7% [65.7%;71.4%]</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -7406,12 +7406,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>4.5% [4.1%;4.9%]</t>
+          <t>4.4% [4.0%;4.9%]</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>9.0% [4.0%;15.0%]</t>
+          <t>8.0% [3.0%;14.0%]</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -7448,12 +7448,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>89.9% [87.6%;92.1%]</t>
+          <t>90.0% [87.7%;92.2%]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>74.9% [72.7%;77.1%]</t>
+          <t>74.9% [72.8%;77.1%]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1.6% [1.4%;1.9%]</t>
+          <t>1.7% [1.5%;2.0%]</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7510,27 +7510,27 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>96.0% [94.2%;97.6%]</t>
+          <t>95.8% [94.0%;97.4%]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>93.8% [91.6%;95.8%]</t>
+          <t>93.6% [91.4%;95.6%]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>89.8% [87.4%;92.2%]</t>
+          <t>89.4% [86.8%;91.8%]</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>4.8% [2.8%;7.0%]</t>
+          <t>4.2% [2.6%;6.0%]</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2.4% [1.2%;3.6%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7577,27 +7577,27 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>90.8% [88.4%;93.2%]</t>
+          <t>91.0% [88.6%;93.4%]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>85.6% [83.0%;88.2%]</t>
+          <t>86.6% [84.0%;89.2%]</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>4.6% [2.8%;6.8%]</t>
+          <t>4.8% [3.0%;7.0%]</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2.4% [1.2%;3.7%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -7649,17 +7649,17 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>5.7% [4.2%;7.2%]</t>
+          <t>5.5% [3.9%;7.2%]</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>4.0% [1.0%;8.0%]</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>4.0% [1.0%;8.0%]</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -7711,17 +7711,17 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>4.5% [3.3%;5.8%]</t>
+          <t>5.3% [4.0%;6.8%]</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -7882,17 +7882,17 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>92.0% [90.0%;94.0%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>76.7% [74.4%;79.1%]</t>
+          <t>76.7% [74.4%;79.0%]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>67.5% [66.6%;68.5%]</t>
+          <t>68.1% [67.0%;69.3%]</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>4.7% [4.0%;5.5%]</t>
+          <t>4.9% [4.1%;5.6%]</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7944,17 +7944,17 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>77.9% [75.4%;80.5%]</t>
+          <t>78.1% [75.6%;80.7%]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>65.1% [63.3%;66.9%]</t>
+          <t>65.0% [63.3%;66.7%]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>57.2% [55.0%;59.3%]</t>
+          <t>57.6% [55.4%;59.7%]</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>4.1% [3.4%;4.9%]</t>
+          <t>4.3% [3.5%;5.1%]</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8006,17 +8006,17 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>99.0% [98.6%;99.4%]</t>
+          <t>99.0% [98.5%;99.4%]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>96.6% [95.5%;97.5%]</t>
+          <t>96.5% [95.4%;97.4%]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>66.4% [64.4%;68.6%]</t>
+          <t>66.8% [64.8%;68.9%]</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -8026,12 +8026,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>4.3% [3.9%;4.7%]</t>
+          <t>4.2% [3.8%;4.7%]</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -8068,17 +8068,17 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>90.0% [87.7%;92.2%]</t>
+          <t>90.0% [87.6%;92.2%]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>74.8% [72.7%;77.0%]</t>
+          <t>74.7% [72.6%;77.0%]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>66.2% [65.9%;66.6%]</t>
+          <t>66.3% [65.9%;66.7%]</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -8088,7 +8088,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1.6% [1.4%;1.8%]</t>
+          <t>1.7% [1.5%;1.9%]</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8130,22 +8130,22 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>95.8% [94.0%;97.4%]</t>
+          <t>96.0% [94.2%;97.6%]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>93.8% [91.6%;95.8%]</t>
+          <t>93.6% [91.4%;95.6%]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>90.2% [87.8%;92.6%]</t>
+          <t>89.8% [87.4%;92.2%]</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>4.0% [2.2%;6.0%]</t>
+          <t>4.2% [2.6%;6.0%]</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8192,32 +8192,32 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>93.6% [91.4%;95.6%]</t>
+          <t>93.8% [91.6%;95.8%]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>91.2% [88.8%;93.4%]</t>
+          <t>91.4% [89.0%;93.6%]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>86.2% [83.6%;88.8%]</t>
+          <t>86.8% [84.2%;89.4%]</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>4.6% [2.8%;6.8%]</t>
+          <t>5.0% [3.0%;7.2%]</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2.6% [1.4%;3.9%]</t>
+          <t>2.2% [1.0%;3.4%]</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -8269,17 +8269,17 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>5.2% [3.8%;6.6%]</t>
+          <t>5.5% [3.9%;7.2%]</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -8331,17 +8331,17 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>4.8% [3.6%;6.2%]</t>
+          <t>5.3% [4.0%;6.8%]</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -8502,17 +8502,17 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>92.0% [89.9%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>76.4% [74.2%;78.8%]</t>
+          <t>76.5% [74.2%;78.8%]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>67.3% [66.5%;68.3%]</t>
+          <t>67.4% [66.5%;68.5%]</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -8522,12 +8522,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>4.7% [4.0%;5.4%]</t>
+          <t>4.6% [3.8%;5.3%]</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>4.0% [1.0%;8.0%]</t>
+          <t>3.0% [0.0%;7.0%]</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -8564,17 +8564,17 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>77.9% [75.4%;80.5%]</t>
+          <t>78.0% [75.5%;80.6%]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>65.1% [63.3%;66.8%]</t>
+          <t>65.0% [63.2%;66.6%]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>57.0% [54.8%;59.1%]</t>
+          <t>57.5% [55.3%;59.6%]</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -8584,12 +8584,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>4.1% [3.4%;4.9%]</t>
+          <t>4.1% [3.3%;5.0%]</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>2.0% [0.0%;5.0%]</t>
+          <t>3.0% [0.0%;7.0%]</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -8626,17 +8626,17 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>99.0% [98.6%;99.4%]</t>
+          <t>99.0% [98.5%;99.4%]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>96.5% [95.4%;97.4%]</t>
+          <t>96.4% [95.4%;97.3%]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>68.8% [66.8%;70.9%]</t>
+          <t>68.5% [66.5%;70.5%]</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -8651,7 +8651,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>12.0% [6.0%;19.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -8688,17 +8688,17 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>90.0% [87.7%;92.2%]</t>
+          <t>89.9% [87.6%;92.1%]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>74.7% [72.6%;77.0%]</t>
+          <t>74.7% [72.6%;76.9%]</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>66.2% [65.9%;66.6%]</t>
+          <t>66.3% [66.0%;66.7%]</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>3.0% [0.0%;7.0%]</t>
+          <t>2.0% [0.0%;5.0%]</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>95.6% [93.8%;97.4%]</t>
+          <t>96.0% [94.2%;97.6%]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>90.2% [87.8%;92.6%]</t>
+          <t>89.6% [87.2%;92.0%]</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2.0% [1.0%;3.2%]</t>
+          <t>2.2% [1.1%;3.4%]</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8812,27 +8812,27 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>93.4% [91.2%;95.4%]</t>
+          <t>93.8% [91.6%;95.8%]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>91.0% [88.6%;93.2%]</t>
+          <t>91.4% [89.0%;93.6%]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>86.4% [83.8%;89.0%]</t>
+          <t>86.6% [84.0%;89.2%]</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>4.6% [2.8%;6.6%]</t>
+          <t>4.8% [2.8%;7.0%]</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2.3% [1.2%;3.6%]</t>
+          <t>2.4% [1.2%;3.6%]</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8889,17 +8889,17 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>5.0% [3.7%;6.4%]</t>
+          <t>5.6% [4.0%;7.2%]</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>4.0% [1.0%;8.0%]</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>4.0% [1.0%;8.0%]</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>4.8% [3.6%;6.2%]</t>
+          <t>5.3% [4.0%;6.7%]</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -9122,17 +9122,17 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>92.0% [90.0%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>76.2% [73.9%;78.5%]</t>
+          <t>76.3% [74.0%;78.7%]</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>67.3% [66.5%;68.3%]</t>
+          <t>68.1% [67.1%;69.3%]</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -9142,12 +9142,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>4.5% [3.8%;5.2%]</t>
+          <t>4.6% [3.9%;5.4%]</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>4.0% [1.0%;8.0%]</t>
+          <t>3.0% [0.0%;7.0%]</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>77.9% [75.4%;80.5%]</t>
+          <t>78.0% [75.5%;80.6%]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>56.9% [54.6%;59.0%]</t>
+          <t>57.2% [55.0%;59.4%]</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>3.9% [3.2%;4.7%]</t>
+          <t>4.1% [3.3%;4.9%]</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9251,12 +9251,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>96.4% [95.3%;97.4%]</t>
+          <t>96.4% [95.4%;97.3%]</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>67.3% [65.3%;69.3%]</t>
+          <t>67.3% [65.4%;69.3%]</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -9266,12 +9266,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>4.2% [3.8%;4.6%]</t>
+          <t>4.1% [3.7%;4.6%]</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>8.0% [3.0%;14.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -9308,17 +9308,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>90.0% [87.7%;92.2%]</t>
+          <t>89.9% [87.6%;92.2%]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>74.7% [72.6%;77.0%]</t>
+          <t>74.7% [72.6%;76.9%]</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>65.9% [65.2%;66.5%]</t>
+          <t>66.3% [66.0%;66.7%]</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -9328,12 +9328,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>1.6% [1.4%;1.8%]</t>
+          <t>1.6% [1.4%;1.9%]</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>2.0% [0.0%;5.0%]</t>
+          <t>3.0% [0.0%;7.0%]</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>95.8% [94.0%;97.4%]</t>
+          <t>96.0% [94.2%;97.6%]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>89.8% [87.4%;92.0%]</t>
+          <t>89.6% [87.2%;92.0%]</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>4.4% [2.4%;6.6%]</t>
+          <t>4.2% [2.4%;6.2%]</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -9395,7 +9395,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -9432,27 +9432,27 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>93.4% [91.2%;95.4%]</t>
+          <t>93.8% [91.6%;95.8%]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>91.0% [88.6%;93.2%]</t>
+          <t>91.2% [88.8%;93.4%]</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>86.6% [84.0%;89.2%]</t>
+          <t>86.4% [83.8%;89.0%]</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>4.2% [2.4%;6.2%]</t>
+          <t>4.8% [2.8%;7.0%]</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2.3% [1.2%;3.6%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9509,12 +9509,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>5.1% [3.7%;6.6%]</t>
+          <t>5.6% [4.0%;7.2%]</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9571,17 +9571,17 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>4.7% [3.4%;6.0%]</t>
+          <t>5.2% [3.8%;6.6%]</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -9742,32 +9742,32 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>92.0% [89.9%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>78.6% [76.3%;81.0%]</t>
+          <t>78.9% [76.5%;81.3%]</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>70.4% [69.0%;72.1%]</t>
+          <t>70.4% [69.0%;72.0%]</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>1.9% [1.9%;2.0%]</t>
+          <t>2.0% [1.9%;2.0%]</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>6.4% [5.6%;7.2%]</t>
+          <t>6.8% [5.8%;7.8%]</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>31.0% [22.0%;40.0%]</t>
+          <t>18.0% [11.0%;26.0%]</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -9809,12 +9809,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>65.7% [64.0%;67.3%]</t>
+          <t>65.6% [63.9%;67.3%]</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>59.5% [57.5%;61.3%]</t>
+          <t>59.4% [57.4%;61.3%]</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -9824,12 +9824,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>5.2% [4.3%;6.1%]</t>
+          <t>5.1% [4.2%;6.0%]</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>8.0% [3.0%;14.0%]</t>
+          <t>9.0% [4.0%;15.0%]</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -9866,17 +9866,17 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>99.0% [98.6%;99.4%]</t>
+          <t>99.0% [98.5%;99.4%]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>96.5% [95.4%;97.5%]</t>
+          <t>96.8% [95.8%;97.6%]</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>75.7% [73.5%;77.8%]</t>
+          <t>75.9% [73.7%;78.1%]</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>4.8% [4.4%;5.2%]</t>
+          <t>4.9% [4.5%;5.4%]</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>28.0% [20.0%;37.0%]</t>
+          <t>19.0% [12.0%;27.0%]</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -9928,17 +9928,17 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>90.0% [87.7%;92.1%]</t>
+          <t>90.0% [87.7%;92.2%]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>75.0% [72.9%;77.3%]</t>
+          <t>75.2% [73.0%;77.4%]</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>66.6% [66.2%;67.1%]</t>
+          <t>66.6% [66.3%;67.1%]</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>1.8% [1.5%;2.0%]</t>
+          <t>1.8% [1.6%;2.1%]</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -9990,32 +9990,32 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>96.2% [94.4%;97.8%]</t>
+          <t>96.0% [94.2%;97.6%]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>93.2% [91.0%;95.2%]</t>
+          <t>92.8% [90.6%;94.8%]</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>90.4% [88.0%;92.6%]</t>
+          <t>89.6% [87.2%;92.0%]</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>4.4% [2.6%;6.6%]</t>
+          <t>4.8% [3.0%;6.8%]</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2.3% [1.1%;3.6%]</t>
+          <t>2.8% [1.5%;4.3%]</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -10057,22 +10057,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>90.4% [88.0%;92.8%]</t>
+          <t>90.8% [88.4%;93.2%]</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>87.2% [84.6%;89.8%]</t>
+          <t>86.8% [84.2%;89.4%]</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>4.4% [2.6%;6.6%]</t>
+          <t>4.8% [3.0%;7.0%]</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2.4% [1.2%;3.8%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10129,17 +10129,17 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>5.1% [3.8%;6.4%]</t>
+          <t>5.7% [4.2%;7.3%]</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
+          <t>9.0% [4.0%;15.0%]</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
           <t>8.0% [3.0%;14.0%]</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -10191,17 +10191,17 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>4.7% [3.5%;5.9%]</t>
+          <t>5.3% [4.0%;6.8%]</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -10362,17 +10362,17 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>92.0% [89.9%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>77.2% [75.0%;79.6%]</t>
+          <t>77.3% [75.0%;79.6%]</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>68.4% [67.3%;69.8%]</t>
+          <t>68.6% [67.5%;70.0%]</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -10382,12 +10382,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>5.2% [4.4%;5.9%]</t>
+          <t>5.0% [4.2%;5.9%]</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>12.0% [6.0%;19.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>77.9% [75.4%;80.5%]</t>
+          <t>78.1% [75.6%;80.6%]</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -10434,17 +10434,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>57.7% [55.5%;59.8%]</t>
+          <t>58.2% [56.0%;60.2%]</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.8% [0.8%;0.8%]</t>
+          <t>0.8% [0.7%;0.8%]</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>4.4% [3.6%;5.2%]</t>
+          <t>4.5% [3.7%;5.4%]</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10486,17 +10486,17 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>99.0% [98.6%;99.4%]</t>
+          <t>99.0% [98.5%;99.4%]</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>96.6% [95.5%;97.5%]</t>
+          <t>96.7% [95.6%;97.5%]</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>74.1% [72.0%;76.2%]</t>
+          <t>74.6% [72.6%;76.7%]</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -10506,12 +10506,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>4.5% [4.1%;4.9%]</t>
+          <t>4.4% [4.0%;4.9%]</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>16.0% [9.0%;23.0%]</t>
+          <t>13.0% [7.0%;20.0%]</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -10548,17 +10548,17 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>89.9% [87.5%;92.1%]</t>
+          <t>90.0% [87.7%;92.2%]</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>74.9% [72.8%;77.1%]</t>
+          <t>74.9% [72.8%;77.2%]</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>66.4% [66.0%;66.8%]</t>
+          <t>66.4% [66.0%;66.9%]</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1.6% [1.4%;1.9%]</t>
+          <t>1.7% [1.5%;2.0%]</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -10610,27 +10610,27 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>96.0% [94.2%;97.6%]</t>
+          <t>95.8% [94.0%;97.4%]</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>93.8% [91.6%;95.8%]</t>
+          <t>93.6% [91.4%;95.6%]</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>89.8% [87.4%;92.2%]</t>
+          <t>89.6% [87.2%;92.0%]</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>4.8% [2.8%;7.0%]</t>
+          <t>4.2% [2.6%;6.0%]</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2.4% [1.2%;3.6%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -10677,27 +10677,27 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>90.8% [88.4%;93.2%]</t>
+          <t>91.0% [88.6%;93.4%]</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>85.8% [83.2%;88.4%]</t>
+          <t>86.6% [84.0%;89.2%]</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>4.6% [2.8%;6.8%]</t>
+          <t>4.8% [3.0%;7.0%]</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2.4% [1.2%;3.7%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>5.7% [4.2%;7.2%]</t>
+          <t>5.5% [3.9%;7.2%]</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>4.5% [3.2%;5.8%]</t>
+          <t>5.3% [4.0%;6.8%]</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -10982,17 +10982,17 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>92.0% [90.0%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>76.7% [74.5%;79.1%]</t>
+          <t>76.9% [74.6%;79.3%]</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>68.2% [67.2%;69.4%]</t>
+          <t>68.7% [67.5%;70.2%]</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -11002,12 +11002,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>4.7% [4.0%;5.5%]</t>
+          <t>5.0% [4.2%;5.7%]</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>10.0% [5.0%;16.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -11044,17 +11044,17 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>77.9% [75.4%;80.5%]</t>
+          <t>78.1% [75.6%;80.7%]</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>65.1% [63.4%;66.9%]</t>
+          <t>65.0% [63.3%;66.7%]</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>57.4% [55.2%;59.5%]</t>
+          <t>57.7% [55.5%;59.8%]</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>4.1% [3.4%;4.9%]</t>
+          <t>4.3% [3.5%;5.1%]</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11106,17 +11106,17 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>99.0% [98.6%;99.4%]</t>
+          <t>99.0% [98.5%;99.4%]</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>96.6% [95.6%;97.5%]</t>
+          <t>96.5% [95.5%;97.4%]</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>70.6% [68.5%;72.7%]</t>
+          <t>70.9% [69.0%;72.9%]</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -11126,12 +11126,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>4.3% [3.9%;4.8%]</t>
+          <t>4.2% [3.8%;4.7%]</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>14.0% [8.0%;21.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -11173,12 +11173,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>74.8% [72.7%;77.0%]</t>
+          <t>74.7% [72.6%;77.0%]</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>66.3% [66.0%;66.6%]</t>
+          <t>66.3% [66.0%;66.8%]</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1.6% [1.4%;1.8%]</t>
+          <t>1.7% [1.5%;1.9%]</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11230,22 +11230,22 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>96.0% [94.4%;97.6%]</t>
+          <t>96.0% [94.2%;97.6%]</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>93.8% [91.6%;95.8%]</t>
+          <t>93.6% [91.4%;95.6%]</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>90.2% [87.8%;92.6%]</t>
+          <t>89.8% [87.4%;92.2%]</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>4.0% [2.2%;6.0%]</t>
+          <t>4.4% [2.6%;6.4%]</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -11292,32 +11292,32 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>93.6% [91.4%;95.6%]</t>
+          <t>93.8% [91.6%;95.8%]</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>91.2% [88.8%;93.4%]</t>
+          <t>91.6% [89.2%;93.8%]</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>86.2% [83.6%;88.8%]</t>
+          <t>87.0% [84.4%;89.6%]</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>4.6% [2.8%;6.6%]</t>
+          <t>5.0% [3.0%;7.2%]</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2.6% [1.4%;3.9%]</t>
+          <t>2.2% [1.0%;3.4%]</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -11369,17 +11369,17 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>5.2% [3.9%;6.7%]</t>
+          <t>5.7% [4.1%;7.3%]</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -11431,17 +11431,17 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>4.8% [3.6%;6.2%]</t>
+          <t>5.3% [4.0%;6.8%]</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>7.0% [2.0%;12.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>7.0% [3.0%;12.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -11602,17 +11602,17 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>92.0% [90.0%;93.9%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>76.6% [74.4%;79.0%]</t>
+          <t>76.6% [74.3%;78.9%]</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>67.9% [66.9%;69.1%]</t>
+          <t>68.4% [67.3%;69.8%]</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -11622,12 +11622,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>4.8% [4.1%;5.5%]</t>
+          <t>4.7% [4.0%;5.4%]</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>7.0% [3.0%;12.0%]</t>
+          <t>3.0% [0.0%;7.0%]</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -11664,17 +11664,17 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>77.9% [75.4%;80.5%]</t>
+          <t>78.0% [75.5%;80.6%]</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>65.1% [63.4%;66.8%]</t>
+          <t>65.0% [63.3%;66.6%]</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>57.2% [55.0%;59.3%]</t>
+          <t>57.5% [55.3%;59.6%]</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>4.1% [3.4%;4.9%]</t>
+          <t>4.1% [3.3%;5.0%]</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>2.0% [0.0%;5.0%]</t>
+          <t>3.0% [0.0%;7.0%]</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -11726,17 +11726,17 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>99.0% [98.6%;99.4%]</t>
+          <t>99.0% [98.5%;99.4%]</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>96.5% [95.4%;97.4%]</t>
+          <t>96.5% [95.5%;97.4%]</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>71.0% [69.0%;73.0%]</t>
+          <t>70.9% [69.0%;73.0%]</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>14.0% [8.0%;21.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -11788,17 +11788,17 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>90.0% [87.7%;92.3%]</t>
+          <t>89.9% [87.6%;92.2%]</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>74.7% [72.6%;77.0%]</t>
+          <t>74.7% [72.6%;76.9%]</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>66.2% [65.9%;66.6%]</t>
+          <t>66.3% [66.0%;66.7%]</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -11850,7 +11850,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>95.6% [93.8%;97.4%]</t>
+          <t>96.0% [94.2%;97.6%]</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -11860,7 +11860,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>90.4% [88.0%;92.6%]</t>
+          <t>90.0% [87.6%;92.4%]</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -11870,7 +11870,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2.0% [1.0%;3.2%]</t>
+          <t>2.2% [1.1%;3.4%]</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -11912,12 +11912,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>93.4% [91.2%;95.4%]</t>
+          <t>93.8% [91.6%;95.8%]</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>91.0% [88.6%;93.2%]</t>
+          <t>91.4% [89.0%;93.6%]</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -11927,12 +11927,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>4.6% [2.8%;6.6%]</t>
+          <t>4.8% [2.8%;7.0%]</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2.3% [1.2%;3.6%]</t>
+          <t>2.4% [1.2%;3.6%]</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -11989,17 +11989,17 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>5.0% [3.7%;6.4%]</t>
+          <t>5.6% [4.0%;7.2%]</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>4.0% [1.0%;8.0%]</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>4.0% [1.0%;8.0%]</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -12051,7 +12051,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>4.8% [3.6%;6.2%]</t>
+          <t>5.3% [4.0%;6.8%]</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -12222,17 +12222,17 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>92.0% [89.9%;94.0%]</t>
+          <t>92.2% [90.2%;94.1%]</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>76.3% [74.0%;78.7%]</t>
+          <t>76.4% [74.1%;78.8%]</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>68.0% [66.9%;69.3%]</t>
+          <t>68.6% [67.4%;69.9%]</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -12242,12 +12242,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>4.5% [3.8%;5.3%]</t>
+          <t>4.6% [3.9%;5.4%]</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>6.0% [2.0%;11.0%]</t>
+          <t>4.0% [1.0%;8.0%]</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -12284,7 +12284,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>77.9% [75.3%;80.5%]</t>
+          <t>78.0% [75.5%;80.6%]</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -12294,7 +12294,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>56.9% [54.7%;59.0%]</t>
+          <t>57.3% [55.1%;59.4%]</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>3.9% [3.2%;4.7%]</t>
+          <t>4.1% [3.3%;4.9%]</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12346,17 +12346,17 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>99.0% [98.6%;99.4%]</t>
+          <t>99.0% [98.5%;99.4%]</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>96.4% [95.3%;97.4%]</t>
+          <t>96.4% [95.4%;97.3%]</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>69.5% [67.5%;71.6%]</t>
+          <t>69.6% [67.7%;71.6%]</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -12366,12 +12366,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>4.2% [3.8%;4.6%]</t>
+          <t>4.2% [3.7%;4.6%]</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>12.0% [6.0%;19.0%]</t>
+          <t>5.0% [1.0%;10.0%]</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -12408,17 +12408,17 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>90.0% [87.7%;92.2%]</t>
+          <t>89.9% [87.6%;92.2%]</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>74.7% [72.6%;77.0%]</t>
+          <t>74.7% [72.6%;76.9%]</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>65.9% [65.2%;66.5%]</t>
+          <t>66.3% [66.0%;66.7%]</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -12428,12 +12428,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1.6% [1.4%;1.8%]</t>
+          <t>1.7% [1.4%;1.9%]</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>2.0% [0.0%;5.0%]</t>
+          <t>3.0% [0.0%;7.0%]</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -12470,7 +12470,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>95.8% [94.0%;97.4%]</t>
+          <t>96.0% [94.2%;97.6%]</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -12480,12 +12480,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>89.8% [87.4%;92.0%]</t>
+          <t>89.6% [87.2%;92.0%]</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>4.4% [2.6%;6.6%]</t>
+          <t>4.2% [2.4%;6.2%]</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -12495,7 +12495,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -12532,27 +12532,27 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>93.4% [91.2%;95.4%]</t>
+          <t>93.8% [91.6%;95.8%]</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>91.0% [88.6%;93.2%]</t>
+          <t>91.2% [88.8%;93.6%]</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>86.8% [84.0%;89.4%]</t>
+          <t>86.4% [83.8%;89.0%]</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>4.2% [2.4%;6.2%]</t>
+          <t>4.8% [2.8%;7.0%]</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2.3% [1.2%;3.6%]</t>
+          <t>2.0% [1.0%;3.2%]</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -12609,12 +12609,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>5.1% [3.7%;6.6%]</t>
+          <t>5.6% [4.0%;7.2%]</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>6.0% [2.0%;11.0%]</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -12671,17 +12671,17 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>4.7% [3.4%;6.0%]</t>
+          <t>5.2% [3.8%;6.6%]</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>5.0% [1.0%;10.0%]</t>
+          <t>7.0% [2.0%;12.0%]</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
